--- a/Stocks/ACP WWSE.xlsx
+++ b/Stocks/ACP WWSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance_Shared/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="32" documentId="8_{3FE6928D-735E-449F-B88E-CE4F80EDA77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1EB9E75-A9ED-42A5-B0F2-E410017C9217}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{A11FA151-8478-470D-956F-19D74E6A88E6}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{A11FA151-8478-470D-956F-19D74E6A88E6}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C7430-763D-4F33-83CD-D703FB52809C}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270B954-1394-4671-9AAA-10133E1C3A74}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
